--- a/Salary/W3 Salaries.xlsx
+++ b/Salary/W3 Salaries.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Fender\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwagn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD011CE-1D71-40C1-A23A-97F752668BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C5EC5-B7F0-43E4-ABFE-ECD54FBAFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>Total Number of Team Members</t>
-  </si>
-  <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>Member 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Total salary distributed </t>
@@ -160,6 +145,39 @@
 You must distribute a total salary of (100 units) x (number of team members).
 Do not adjust cell locations.</t>
     </r>
+  </si>
+  <si>
+    <t>Lothaire Aubergeon</t>
+  </si>
+  <si>
+    <t>Ian Hutter</t>
+  </si>
+  <si>
+    <t>Sophie Leichtle</t>
+  </si>
+  <si>
+    <t>Marco Schöb</t>
+  </si>
+  <si>
+    <t>Markus Wagner</t>
+  </si>
+  <si>
+    <t>4.5h</t>
+  </si>
+  <si>
+    <t>"How might we" statements formulated</t>
+  </si>
+  <si>
+    <t>looked for sources</t>
+  </si>
+  <si>
+    <t>summarized sources</t>
+  </si>
+  <si>
+    <t>brainstorming</t>
+  </si>
+  <si>
+    <t>what comes next by the professor :)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +330,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -593,148 +611,166 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="34.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B8:B12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="8">
         <f>B5*100-B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="37.299999999999997" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="37.15" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
     </row>
@@ -744,5 +780,6 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>